--- a/Automating the Lookup - VLOOKUP.xlsx
+++ b/Automating the Lookup - VLOOKUP.xlsx
@@ -190,14 +190,6 @@
       </right>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -206,6 +198,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -214,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -237,55 +237,49 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -297,13 +291,13 @@
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -379,12 +373,15 @@
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="str">
+        <f t="shared" ref="B3:B10" si="1"> VLOOKUP(C3, $B$15:$D$26, 3, FALSE)</f>
+        <v>Algebra</v>
+      </c>
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="10">
-        <f t="shared" ref="D3:D10" si="1"> VLOOKUP(C3, $B$15:$D$26, 2, FALSE)</f>
+        <f t="shared" ref="D3:D10" si="2"> VLOOKUP(C3, $B$15:$D$26, 2, FALSE)</f>
         <v>3</v>
       </c>
       <c r="E3" s="11">
@@ -396,12 +393,15 @@
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Calculus</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E4" s="11">
@@ -413,12 +413,15 @@
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Linear Algebra</v>
+      </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E5" s="11">
@@ -430,12 +433,15 @@
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Introduction to Programming</v>
+      </c>
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E6" s="11">
@@ -447,12 +453,15 @@
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Operating Systems</v>
+      </c>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E7" s="11">
@@ -464,12 +473,15 @@
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Computer Architecture</v>
+      </c>
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E8" s="11">
@@ -481,12 +493,15 @@
     </row>
     <row r="9">
       <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Logic</v>
+      </c>
       <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E9" s="11">
@@ -498,30 +513,33 @@
     </row>
     <row r="10">
       <c r="A10" s="3"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Statistics</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="16">
-        <f t="shared" si="1"/>
+      <c r="D10" s="15">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>2.6</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
@@ -563,13 +581,13 @@
     </row>
     <row r="15">
       <c r="A15" s="3"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="11">
         <v>3.0</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="7"/>
@@ -579,13 +597,13 @@
     </row>
     <row r="16">
       <c r="A16" s="3"/>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="11">
         <v>3.0</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="7"/>
@@ -595,13 +613,13 @@
     </row>
     <row r="17">
       <c r="A17" s="3"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="11">
         <v>3.0</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="7"/>
@@ -611,13 +629,13 @@
     </row>
     <row r="18">
       <c r="A18" s="3"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="11">
         <v>4.0</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="7"/>
@@ -627,13 +645,13 @@
     </row>
     <row r="19">
       <c r="A19" s="3"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="11">
         <v>5.0</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="7"/>
@@ -643,13 +661,13 @@
     </row>
     <row r="20">
       <c r="A20" s="3"/>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="11">
         <v>6.0</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="7"/>
@@ -659,13 +677,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="11">
         <v>6.0</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="7"/>
@@ -675,13 +693,13 @@
     </row>
     <row r="22">
       <c r="A22" s="3"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="11">
         <v>4.0</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="7"/>
@@ -691,13 +709,13 @@
     </row>
     <row r="23">
       <c r="A23" s="3"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="11">
         <v>4.0</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="7"/>
@@ -707,13 +725,13 @@
     </row>
     <row r="24">
       <c r="A24" s="3"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="11">
         <v>3.0</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="7"/>
@@ -723,13 +741,13 @@
     </row>
     <row r="25">
       <c r="A25" s="3"/>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="11">
         <v>6.0</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="7"/>
@@ -739,13 +757,13 @@
     </row>
     <row r="26">
       <c r="A26" s="3"/>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <v>3.0</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="7"/>
@@ -765,18 +783,18 @@
     </row>
     <row r="28">
       <c r="A28" s="7"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="11">
@@ -794,32 +812,32 @@
       <c r="G29" s="11">
         <v>2.67</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="25">
         <v>3.67</v>
       </c>
       <c r="I29" s="7"/>
     </row>
     <row r="30">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="28" t="s">
         <v>35</v>
       </c>
       <c r="I30" s="7"/>
